--- a/testData/time_rule_test_data.xlsx
+++ b/testData/time_rule_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="add_time_rule" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="117">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -478,6 +478,10 @@
   </si>
   <si>
     <t xml:space="preserve">4 5 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -973,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XDW6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1121,8 +1125,8 @@
       <c r="S2" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="9">
-        <v>1</v>
+      <c r="T2" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>26</v>
@@ -1182,8 +1186,8 @@
       <c r="S3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="9">
-        <v>1</v>
+      <c r="T3" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>27</v>
@@ -17573,8 +17577,8 @@
       <c r="S4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="T4" s="9">
-        <v>1</v>
+      <c r="T4" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>26</v>
@@ -17634,8 +17638,8 @@
       <c r="S5" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="T5" s="9">
-        <v>1</v>
+      <c r="T5" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="U5" s="9" t="s">
         <v>26</v>
@@ -17695,8 +17699,8 @@
       <c r="S6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="T6" s="9">
-        <v>1</v>
+      <c r="T6" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="U6" s="9" t="s">
         <v>26</v>
@@ -17704,8 +17708,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1"/>
+    <hyperlink ref="T3:T6" r:id="rId2" display="qawsed@123"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -17847,7 +17855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
